--- a/Live_Projects/DJ/Events/02_Done/Rechnungen/doc/2018/Ausgaben.xlsx
+++ b/Live_Projects/DJ/Events/02_Done/Rechnungen/doc/2018/Ausgaben.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC837106-8FB7-4F0F-BCDA-9E9E28DBC563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Gesamt</t>
   </si>
@@ -88,12 +89,15 @@
   </si>
   <si>
     <t xml:space="preserve">2018 - 005 </t>
+  </si>
+  <si>
+    <t>Betrag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
@@ -282,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,19 +310,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,6 +351,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,11 +655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,297 +667,311 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="16">
         <v>0.3</v>
       </c>
+      <c r="D1" s="30"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="25" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="2" t="s">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C4" s="13">
         <v>43183</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D4" s="31">
+        <v>400</v>
+      </c>
+      <c r="E4" s="7">
         <v>49</v>
       </c>
+      <c r="F4" s="7">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8">
+        <f>E4+F4</f>
+        <v>98</v>
+      </c>
+      <c r="H4" s="26">
+        <f>G4*C1</f>
+        <v>29.4</v>
+      </c>
+      <c r="I4" s="9">
+        <v>43183.583333333336</v>
+      </c>
+      <c r="J4" s="9">
+        <v>43184.291666666664</v>
+      </c>
+      <c r="K4" s="28">
+        <f>(J4-I4) * 24</f>
+        <v>16.999999999883585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13">
+        <v>43197</v>
+      </c>
+      <c r="D5" s="31">
+        <v>400</v>
+      </c>
       <c r="E5" s="7">
-        <v>49</v>
-      </c>
-      <c r="F5" s="8">
-        <f>D5+E5</f>
-        <v>98</v>
-      </c>
-      <c r="G5" s="9">
-        <f>F5*C1</f>
-        <v>29.4</v>
-      </c>
-      <c r="H5" s="10">
-        <v>43183.583333333336</v>
-      </c>
-      <c r="I5" s="10">
-        <v>43184.291666666664</v>
-      </c>
-      <c r="J5" s="11">
-        <f>(I5-H5) * 24</f>
+        <v>12</v>
+      </c>
+      <c r="F5" s="7">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <f>E5+F5</f>
+        <v>24</v>
+      </c>
+      <c r="H5" s="26">
+        <f>G5*C1</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I5" s="9">
+        <v>43197.583333333336</v>
+      </c>
+      <c r="J5" s="9">
+        <v>43198.166666666664</v>
+      </c>
+      <c r="K5" s="28">
+        <f>(J5-I5) * 24</f>
+        <v>13.999999999883585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43225</v>
+      </c>
+      <c r="D6" s="31">
+        <v>400</v>
+      </c>
+      <c r="E6" s="7">
+        <v>73</v>
+      </c>
+      <c r="F6" s="7">
+        <v>73</v>
+      </c>
+      <c r="G6" s="8">
+        <f>E6+F6</f>
+        <v>146</v>
+      </c>
+      <c r="H6" s="26">
+        <f>G6*C1</f>
+        <v>43.8</v>
+      </c>
+      <c r="I6" s="9">
+        <v>43225.583333333336</v>
+      </c>
+      <c r="J6" s="9">
+        <v>43226.25</v>
+      </c>
+      <c r="K6" s="28">
+        <f>(J6-I6) * 24</f>
+        <v>15.999999999941792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="13">
+        <v>43386</v>
+      </c>
+      <c r="D7" s="31">
+        <v>400</v>
+      </c>
+      <c r="E7" s="7">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8">
+        <f>E7+F7</f>
+        <v>62</v>
+      </c>
+      <c r="H7" s="26">
+        <f>G7*C1</f>
+        <v>18.599999999999998</v>
+      </c>
+      <c r="I7" s="9">
+        <v>43386.583333333336</v>
+      </c>
+      <c r="J7" s="9">
+        <v>43387.208333333336</v>
+      </c>
+      <c r="K7" s="28">
+        <f>(J7-I7) * 24</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13">
+        <v>43421</v>
+      </c>
+      <c r="D8" s="31">
+        <v>400</v>
+      </c>
+      <c r="E8" s="7">
+        <v>65</v>
+      </c>
+      <c r="F8" s="7">
+        <v>65</v>
+      </c>
+      <c r="G8" s="8">
+        <f>E8+F8</f>
+        <v>130</v>
+      </c>
+      <c r="H8" s="26">
+        <f>G8*C1</f>
+        <v>39</v>
+      </c>
+      <c r="I8" s="9">
+        <v>43421.583333333336</v>
+      </c>
+      <c r="J8" s="9">
+        <v>43422.291666666664</v>
+      </c>
+      <c r="K8" s="28">
+        <f>(J8-I8) * 24</f>
         <v>16.999999999883585</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="17">
-        <v>43197</v>
-      </c>
-      <c r="D6" s="7">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8">
-        <f>D6+E6</f>
-        <v>24</v>
-      </c>
-      <c r="G6" s="9">
-        <f>F6*C1</f>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="H6" s="10">
-        <v>43197.583333333336</v>
-      </c>
-      <c r="I6" s="10">
-        <v>43198.166666666664</v>
-      </c>
-      <c r="J6" s="11">
-        <f>(I6-H6) * 24</f>
-        <v>13.999999999883585</v>
-      </c>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="28"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="17">
-        <v>43225</v>
-      </c>
-      <c r="D7" s="7">
-        <v>73</v>
-      </c>
-      <c r="E7" s="7">
-        <v>73</v>
-      </c>
-      <c r="F7" s="8">
-        <f>D7+E7</f>
-        <v>146</v>
-      </c>
-      <c r="G7" s="9">
-        <f>F7*C1</f>
-        <v>43.8</v>
-      </c>
-      <c r="H7" s="10">
-        <v>43225.583333333336</v>
-      </c>
-      <c r="I7" s="10">
-        <v>43226.25</v>
-      </c>
-      <c r="J7" s="11">
-        <f>(I7-H7) * 24</f>
-        <v>15.999999999941792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="17">
-        <v>43386</v>
-      </c>
-      <c r="D8" s="7">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7">
-        <v>31</v>
-      </c>
-      <c r="F8" s="8">
-        <f>D8+E8</f>
-        <v>62</v>
-      </c>
-      <c r="G8" s="9">
-        <f>F8*C1</f>
-        <v>18.599999999999998</v>
-      </c>
-      <c r="H8" s="10">
-        <v>43386.583333333336</v>
-      </c>
-      <c r="I8" s="10">
-        <v>43387.208333333336</v>
-      </c>
-      <c r="J8" s="11">
-        <f>(I8-H8) * 24</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="17">
-        <v>43421</v>
-      </c>
-      <c r="D9" s="7">
-        <v>65</v>
-      </c>
-      <c r="E9" s="7">
-        <v>65</v>
-      </c>
-      <c r="F9" s="8">
-        <f>D9+E9</f>
-        <v>130</v>
-      </c>
-      <c r="G9" s="9">
-        <f>F9*C1</f>
-        <v>39</v>
-      </c>
-      <c r="H9" s="10">
-        <v>43421.583333333336</v>
-      </c>
-      <c r="I9" s="10">
-        <v>43422.291666666664</v>
-      </c>
-      <c r="J9" s="11">
-        <f>(I9-H9) * 24</f>
-        <v>16.999999999883585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="27">
+        <f>SUM(D4:D8)</f>
+        <v>2000</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="27">
+        <f>H4+H5+H7+H6+H8+H9</f>
+        <v>138</v>
+      </c>
+      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14">
-        <f>G5+G6+G8+G7+G9+G10</f>
-        <v>138</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="15">
-        <f>J5+J6+J7+J8+J9+J10+J11</f>
+      <c r="K10" s="29">
+        <f>K4+K5+K6+K7+K8+K9</f>
         <v>78.999999999592546</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A3:A4"/>
+  <mergeCells count="7">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Live_Projects/DJ/Events/02_Done/Rechnungen/doc/2018/Ausgaben.xlsx
+++ b/Live_Projects/DJ/Events/02_Done/Rechnungen/doc/2018/Ausgaben.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC837106-8FB7-4F0F-BCDA-9E9E28DBC563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949DE2A8-F487-453C-9A26-F44BB3B8E77E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Gesamt</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Betrag</t>
+  </si>
+  <si>
+    <t>Gesamtbetrag</t>
+  </si>
+  <si>
+    <t>Rechnungx</t>
   </si>
 </sst>
 </file>
@@ -286,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,6 +334,27 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -355,25 +382,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,38 +700,38 @@
       <c r="C1" s="16">
         <v>0.3</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="21" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
@@ -748,7 +764,7 @@
       <c r="C4" s="13">
         <v>43183</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="22">
         <v>400</v>
       </c>
       <c r="E4" s="7">
@@ -761,7 +777,7 @@
         <f>E4+F4</f>
         <v>98</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="17">
         <f>G4*C1</f>
         <v>29.4</v>
       </c>
@@ -771,7 +787,7 @@
       <c r="J4" s="9">
         <v>43184.291666666664</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="19">
         <f>(J4-I4) * 24</f>
         <v>16.999999999883585</v>
       </c>
@@ -786,7 +802,7 @@
       <c r="C5" s="13">
         <v>43197</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="22">
         <v>400</v>
       </c>
       <c r="E5" s="7">
@@ -799,7 +815,7 @@
         <f>E5+F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="17">
         <f>G5*C1</f>
         <v>7.1999999999999993</v>
       </c>
@@ -809,7 +825,7 @@
       <c r="J5" s="9">
         <v>43198.166666666664</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="19">
         <f>(J5-I5) * 24</f>
         <v>13.999999999883585</v>
       </c>
@@ -824,7 +840,7 @@
       <c r="C6" s="13">
         <v>43225</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="22">
         <v>400</v>
       </c>
       <c r="E6" s="7">
@@ -837,7 +853,7 @@
         <f>E6+F6</f>
         <v>146</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="17">
         <f>G6*C1</f>
         <v>43.8</v>
       </c>
@@ -847,7 +863,7 @@
       <c r="J6" s="9">
         <v>43226.25</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="19">
         <f>(J6-I6) * 24</f>
         <v>15.999999999941792</v>
       </c>
@@ -862,7 +878,7 @@
       <c r="C7" s="13">
         <v>43386</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="22">
         <v>400</v>
       </c>
       <c r="E7" s="7">
@@ -875,7 +891,7 @@
         <f>E7+F7</f>
         <v>62</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="17">
         <f>G7*C1</f>
         <v>18.599999999999998</v>
       </c>
@@ -885,7 +901,7 @@
       <c r="J7" s="9">
         <v>43387.208333333336</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="19">
         <f>(J7-I7) * 24</f>
         <v>15</v>
       </c>
@@ -900,7 +916,7 @@
       <c r="C8" s="13">
         <v>43421</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="22">
         <v>400</v>
       </c>
       <c r="E8" s="7">
@@ -913,7 +929,7 @@
         <f>E8+F8</f>
         <v>130</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="17">
         <f>G8*C1</f>
         <v>39</v>
       </c>
@@ -923,7 +939,7 @@
       <c r="J8" s="9">
         <v>43422.291666666664</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="19">
         <f>(J8-I8) * 24</f>
         <v>16.999999999883585</v>
       </c>
@@ -932,35 +948,111 @@
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="26"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="28"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="27">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="18">
         <f>SUM(D4:D8)</f>
         <v>2000</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="27">
+      <c r="H10" s="18">
         <f>H4+H5+H7+H6+H8+H9</f>
         <v>138</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="29">
+      <c r="K10" s="20">
         <f>K4+K5+K6+K7+K8+K9</f>
         <v>78.999999999592546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="33">
+        <f>D10</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="33">
+        <f>H10</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36">
+        <f>D12 - SUM(D13:D23)</f>
+        <v>1862</v>
       </c>
     </row>
   </sheetData>

--- a/Live_Projects/DJ/Events/02_Done/Rechnungen/doc/2018/Ausgaben.xlsx
+++ b/Live_Projects/DJ/Events/02_Done/Rechnungen/doc/2018/Ausgaben.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949DE2A8-F487-453C-9A26-F44BB3B8E77E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C931EF8-3679-4DD3-87E9-1FC10E480E71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,6 +355,16 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -381,16 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,35 +703,35 @@
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="28" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
@@ -958,9 +958,9 @@
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="18">
         <f>SUM(D4:D8)</f>
         <v>2000</v>
@@ -983,7 +983,7 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="24">
         <f>D10</f>
         <v>2000</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="24">
         <f>H10</f>
         <v>138</v>
       </c>
@@ -1048,9 +1048,9 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27">
         <f>D12 - SUM(D13:D23)</f>
         <v>1862</v>
       </c>

--- a/Live_Projects/DJ/Events/02_Done/Rechnungen/doc/2018/Ausgaben.xlsx
+++ b/Live_Projects/DJ/Events/02_Done/Rechnungen/doc/2018/Ausgaben.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C931EF8-3679-4DD3-87E9-1FC10E480E71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320AEFFA-9B60-43DA-9C09-6DDDBA0EA15C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Gesamt</t>
   </si>
@@ -94,10 +94,37 @@
     <t>Betrag</t>
   </si>
   <si>
-    <t>Gesamtbetrag</t>
-  </si>
-  <si>
-    <t>Rechnungx</t>
+    <t>Rechnung Thomann</t>
+  </si>
+  <si>
+    <t>Rechnung Amazon</t>
+  </si>
+  <si>
+    <t>303-0949756-0841945</t>
+  </si>
+  <si>
+    <t>306-0687874-4573118</t>
+  </si>
+  <si>
+    <t>306-1450847-3194726</t>
+  </si>
+  <si>
+    <t>306-3420296-1421135</t>
+  </si>
+  <si>
+    <t>Rechnung Thalia</t>
+  </si>
+  <si>
+    <t>305-8955531-2213947</t>
+  </si>
+  <si>
+    <t>303-8222317-7857907</t>
+  </si>
+  <si>
+    <t>304-2552591-8517951</t>
+  </si>
+  <si>
+    <t>Rechnungen</t>
   </si>
 </sst>
 </file>
@@ -133,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +197,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -292,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,27 +382,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,20 +420,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,24 +725,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -703,35 +757,35 @@
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="32" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="36"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
@@ -764,7 +818,7 @@
       <c r="C4" s="13">
         <v>43183</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="24">
         <v>400</v>
       </c>
       <c r="E4" s="7">
@@ -802,7 +856,7 @@
       <c r="C5" s="13">
         <v>43197</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="24">
         <v>400</v>
       </c>
       <c r="E5" s="7">
@@ -840,7 +894,7 @@
       <c r="C6" s="13">
         <v>43225</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="24">
         <v>400</v>
       </c>
       <c r="E6" s="7">
@@ -878,7 +932,7 @@
       <c r="C7" s="13">
         <v>43386</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="24">
         <v>400</v>
       </c>
       <c r="E7" s="7">
@@ -916,7 +970,7 @@
       <c r="C8" s="13">
         <v>43421</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="24">
         <v>400</v>
       </c>
       <c r="E8" s="7">
@@ -945,119 +999,232 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="18">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="25">
         <f>SUM(D4:D8)</f>
         <v>2000</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="18">
-        <f>H4+H5+H7+H6+H8+H9</f>
+      <c r="E9" s="11"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="18">
+        <f>H4+H5+H7+H6+H8</f>
         <v>138</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="20">
-        <f>K4+K5+K6+K7+K8+K9</f>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20">
+        <f>K4+K5+K6+K7+K8</f>
         <v>78.999999999592546</v>
       </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="27">
+        <f>SUM(D12:D25)</f>
+        <v>1304.9199999999998</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="24">
-        <f>D10</f>
-        <v>2000</v>
+      <c r="C12" s="23">
+        <v>35523019</v>
+      </c>
+      <c r="D12" s="28">
+        <v>295.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="24">
-        <f>H10</f>
-        <v>138</v>
+        <v>24</v>
+      </c>
+      <c r="C13" s="23">
+        <v>5546076</v>
+      </c>
+      <c r="D13" s="28">
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="23">
+        <v>35595133</v>
+      </c>
+      <c r="D14" s="28">
+        <v>101.6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="23">
+        <v>35612322</v>
+      </c>
+      <c r="D15" s="28">
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
+      <c r="C16" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="28">
+        <v>18.41</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>25</v>
       </c>
+      <c r="C17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="28">
+        <v>44.99</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>25</v>
       </c>
+      <c r="C18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="28">
+        <v>37.799999999999997</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
+      <c r="C19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="28">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>25</v>
       </c>
+      <c r="C20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="28">
+        <v>48.57</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>25</v>
       </c>
+      <c r="C21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="28">
+        <v>138.99</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="C22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="28">
+        <v>223.11</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="23">
+        <v>8630928913</v>
+      </c>
+      <c r="D23" s="28">
+        <v>152.94999999999999</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27">
-        <f>D12 - SUM(D13:D23)</f>
-        <v>1862</v>
-      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="23"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="23"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="22"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A10:C10"/>
+  <mergeCells count="10">
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="C2:C3"/>

--- a/Live_Projects/DJ/Events/02_Done/Rechnungen/doc/2018/Ausgaben.xlsx
+++ b/Live_Projects/DJ/Events/02_Done/Rechnungen/doc/2018/Ausgaben.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320AEFFA-9B60-43DA-9C09-6DDDBA0EA15C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DBD1EC-D5D5-43C7-AE50-24FA7B2B9043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,27 +405,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -444,6 +423,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,35 +757,35 @@
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="31" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="37"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
@@ -999,18 +999,18 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="25">
         <f>SUM(D4:D8)</f>
         <v>2000</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="42"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="18">
         <f>H4+H5+H7+H6+H8</f>
         <v>138</v>
@@ -1026,16 +1026,16 @@
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="27">
         <f>SUM(D12:D25)</f>
         <v>1304.9199999999998</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
     </row>
@@ -1221,16 +1221,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
